--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_16_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2109.218260690938</v>
+        <v>419734.433877497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2109.218260690938</v>
+        <v>419734.433877497</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84947.0819245186</v>
+        <v>5845558.186873854</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84947.0819245186</v>
+        <v>5845558.186873854</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342527035.465638</v>
+        <v>49892081.79310247</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14648.03268656901</v>
+        <v>1254355.259676867</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27805.58706524274</v>
+        <v>2236906.409844893</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40834.8996921393</v>
+        <v>3219457.560012919</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54265.59505022656</v>
+        <v>4201023.91706984</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67696.2904083138</v>
+        <v>5182590.274126761</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81126.98576640105</v>
+        <v>6164156.631183679</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>94557.68112448827</v>
+        <v>7145722.988240594</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>107988.3764825755</v>
+        <v>8127289.345297511</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>121615.4283904091</v>
+        <v>9062986.188019164</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>135279.8450393223</v>
+        <v>10010519.96919256</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>148942.9946175284</v>
+        <v>10957801.60329524</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>162606.1317505099</v>
+        <v>11905083.23739792</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>176269.281328716</v>
+        <v>12852364.87150062</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>189932.430906922</v>
+        <v>13799646.50560332</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>203609.18403303</v>
+        <v>14745624.48956119</v>
       </c>
     </row>
   </sheetData>
